--- a/Energy Consumption23.xlsx
+++ b/Energy Consumption23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4146221854642458</v>
+        <v>2.639363959198433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6897310471608085</v>
+        <v>0.5245111508144374</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.422454462359225</v>
+        <v>2.853365055017402</v>
       </c>
       <c r="C3" t="n">
-        <v>1.574780059640212</v>
+        <v>1.405007082596767</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.057233144445193</v>
+        <v>4.647594031840149</v>
       </c>
       <c r="C4" t="n">
-        <v>2.556876829666144</v>
+        <v>1.808882914226028</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.551332664855765</v>
+        <v>5.171465639361396</v>
       </c>
       <c r="C5" t="n">
-        <v>3.355157096319369</v>
+        <v>2.844151432931404</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.67567631752011</v>
+        <v>8.979334367206684</v>
       </c>
       <c r="C6" t="n">
-        <v>4.335080169796224</v>
+        <v>3.271682412749235</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.1715861993544</v>
+        <v>9.083470661467837</v>
       </c>
       <c r="C7" t="n">
-        <v>5.342051873112938</v>
+        <v>3.954090033301189</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.23593717204501</v>
+        <v>9.944585512194319</v>
       </c>
       <c r="C8" t="n">
-        <v>6.079011770765276</v>
+        <v>4.545064267924576</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.89602125152433</v>
+        <v>10.12121967950107</v>
       </c>
       <c r="C9" t="n">
-        <v>7.086485502054691</v>
+        <v>5.088475944106722</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.15692264522368</v>
+        <v>15.90434358016013</v>
       </c>
       <c r="C10" t="n">
-        <v>8.129743973044357</v>
+        <v>5.605124055639929</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.31658727125708</v>
+        <v>17.39079771196148</v>
       </c>
       <c r="C11" t="n">
-        <v>8.86059991752877</v>
+        <v>6.088141083183289</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.35292028561753</v>
+        <v>20.11324556069098</v>
       </c>
       <c r="C12" t="n">
-        <v>10.18429285506141</v>
+        <v>6.530572277620994</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.45721351754077</v>
+        <v>20.22147741143464</v>
       </c>
       <c r="C13" t="n">
-        <v>11.09510244429384</v>
+        <v>6.987227478839909</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.36049029111597</v>
+        <v>20.87287821065503</v>
       </c>
       <c r="C14" t="n">
-        <v>12.12752309332797</v>
+        <v>7.619186943215801</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30.1460513027356</v>
+        <v>25.61636000599569</v>
       </c>
       <c r="C15" t="n">
-        <v>12.99990061776853</v>
+        <v>8.148935862263054</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>35.11480801813744</v>
+        <v>25.7269299242515</v>
       </c>
       <c r="C16" t="n">
-        <v>13.98529157243316</v>
+        <v>8.848526622804803</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>35.45087193655709</v>
+        <v>31.25395584817196</v>
       </c>
       <c r="C17" t="n">
-        <v>14.93567431370507</v>
+        <v>9.615584012597576</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>38.40079278432417</v>
+        <v>31.74284695724332</v>
       </c>
       <c r="C18" t="n">
-        <v>15.97043115408117</v>
+        <v>10.26177825220126</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>42.26497029672731</v>
+        <v>36.08229755404678</v>
       </c>
       <c r="C19" t="n">
-        <v>16.65572996487883</v>
+        <v>10.82589530986362</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>42.39648920574418</v>
+        <v>41.41016176168067</v>
       </c>
       <c r="C20" t="n">
-        <v>17.60352161824372</v>
+        <v>11.44125378171042</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.31933801326068</v>
+        <v>41.48374633029086</v>
       </c>
       <c r="C21" t="n">
-        <v>18.33472454220916</v>
+        <v>12.00005557618583</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>46.16292304325061</v>
+        <v>42.63742498485434</v>
       </c>
       <c r="C22" t="n">
-        <v>19.5075345820084</v>
+        <v>13.13579430632588</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49.31074580212239</v>
+        <v>42.74402238975347</v>
       </c>
       <c r="C23" t="n">
-        <v>20.30639797617851</v>
+        <v>13.64421659677107</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>49.36598073487415</v>
+        <v>43.42090911939952</v>
       </c>
       <c r="C24" t="n">
-        <v>20.99382433749489</v>
+        <v>14.32685174381981</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.48493287256209</v>
+        <v>45.07788188771953</v>
       </c>
       <c r="C25" t="n">
-        <v>21.94386238397851</v>
+        <v>14.84887929002187</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.10529962867795</v>
+        <v>45.16067945582189</v>
       </c>
       <c r="C26" t="n">
-        <v>23.83495677848736</v>
+        <v>15.45692313809053</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>50.24837154121636</v>
+        <v>53.08792924880444</v>
       </c>
       <c r="C27" t="n">
-        <v>24.76075807107357</v>
+        <v>16.06711457664255</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>50.4391733192003</v>
+        <v>53.24762897162098</v>
       </c>
       <c r="C28" t="n">
-        <v>25.67222171036027</v>
+        <v>16.68520652451175</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>53.12743803258742</v>
+        <v>59.41063985236721</v>
       </c>
       <c r="C29" t="n">
-        <v>26.86071801391584</v>
+        <v>17.11651197892609</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>53.46779747120694</v>
+        <v>59.94974655683151</v>
       </c>
       <c r="C30" t="n">
-        <v>27.66824461820259</v>
+        <v>17.80193596325687</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>54.50843331595638</v>
+        <v>60.04475760209485</v>
       </c>
       <c r="C31" t="n">
-        <v>28.98143669900198</v>
+        <v>18.26689754820427</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>55.1249487093266</v>
+        <v>65.10136962377759</v>
       </c>
       <c r="C32" t="n">
-        <v>29.96680812849872</v>
+        <v>18.88357133094462</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55.25772604911214</v>
+        <v>68.38850227086169</v>
       </c>
       <c r="C33" t="n">
-        <v>30.96104302522493</v>
+        <v>19.48112216972896</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>56.55034910236349</v>
+        <v>69.95416877722057</v>
       </c>
       <c r="C34" t="n">
-        <v>32.16848828656803</v>
+        <v>19.89180260296246</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>58.30213638408945</v>
+        <v>70.02985250269613</v>
       </c>
       <c r="C35" t="n">
-        <v>33.22857314317447</v>
+        <v>20.48642420688477</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>61.3569082276713</v>
+        <v>77.94807947417294</v>
       </c>
       <c r="C36" t="n">
-        <v>34.21560255266018</v>
+        <v>21.35267482140528</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>61.98085005454664</v>
+        <v>78.44755802865359</v>
       </c>
       <c r="C37" t="n">
-        <v>35.07455684571692</v>
+        <v>21.89578653704104</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>70.63706300724994</v>
+        <v>79.63154079910001</v>
       </c>
       <c r="C38" t="n">
-        <v>35.90505461086876</v>
+        <v>22.33627492104021</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>70.97880023578034</v>
+        <v>79.78029813082594</v>
       </c>
       <c r="C39" t="n">
-        <v>36.83763815539919</v>
+        <v>22.98100002236703</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>71.83231678216846</v>
+        <v>83.62277638944475</v>
       </c>
       <c r="C40" t="n">
-        <v>37.81036754384363</v>
+        <v>23.57428073564518</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>72.11954175780538</v>
+        <v>84.03886701799907</v>
       </c>
       <c r="C41" t="n">
-        <v>38.61603598824723</v>
+        <v>24.10004514169572</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>74.64707801096338</v>
+        <v>86.95867171411277</v>
       </c>
       <c r="C42" t="n">
-        <v>39.39969295143973</v>
+        <v>24.77433304287731</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>76.79225416639399</v>
+        <v>87.07739986776369</v>
       </c>
       <c r="C43" t="n">
-        <v>40.25168825345105</v>
+        <v>25.39711635319186</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>85.42416616769663</v>
+        <v>87.25917559543797</v>
       </c>
       <c r="C44" t="n">
-        <v>40.97251664224307</v>
+        <v>26.09585931944289</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>85.55354601804854</v>
+        <v>87.39435185479994</v>
       </c>
       <c r="C45" t="n">
-        <v>41.78100319384396</v>
+        <v>26.7749029301241</v>
       </c>
     </row>
     <row r="46">
@@ -934,54 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>86.7865512354397</v>
+        <v>96.2571192206842</v>
       </c>
       <c r="C46" t="n">
-        <v>42.80057568523551</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>88.27097041712894</v>
-      </c>
-      <c r="C47" t="n">
-        <v>43.74565872572846</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>92.90630393183395</v>
-      </c>
-      <c r="C48" t="n">
-        <v>44.91145546238812</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>96.5593095996381</v>
-      </c>
-      <c r="C49" t="n">
-        <v>45.65709181148637</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>99.60691578016853</v>
-      </c>
-      <c r="C50" t="n">
-        <v>46.51947076697491</v>
+        <v>27.18475680950223</v>
       </c>
     </row>
   </sheetData>
